--- a/biology/Zoologie/Craspedortha_porphyria/Craspedortha_porphyria.xlsx
+++ b/biology/Zoologie/Craspedortha_porphyria/Craspedortha_porphyria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Craspedortha porphyria est une espèce de lépidoptères (papillons) de la famille des Sphingidae, de la sous-famille des Sphinginae, de la tribu des Sphingini, du genre Craspedortha. C'est l'espèce type pour le genre.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'envergure est d'environ 60 mm. La couleur de fond de la face supérieure de l'aile antérieure est constituée de nuances de gris brun pâle avec des reflets pourpres pâles. Il y a une tache pentagonale sombre sur la zone médiane.
 			Face dorsale du mâle MHNT.
@@ -544,7 +558,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est connue au Népal, dans le nord-est de l'Inde, en Birmanie, dans le sud de la Chine, au sud Vietnam et en Thaïlande. La sous-espèce Craspedortha porphyrie basale est endémique de Java.
 </t>
@@ -575,7 +591,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les chenilles se nourrissent sur Vitex canescens au Laos et en Thaïlande.
 </t>
@@ -606,16 +624,86 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce a été décrite par l'entomologiste britannique Arthur Gardiner Butler en 1876 sous le nom initial de Daphnusa porphyria[1].
-La localité type est Darjeeling.
-Synonymie
-Daphnusa porphyria Butler, 1876 (protonyme)
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'espèce a été décrite par l'entomologiste britannique Arthur Gardiner Butler en 1876 sous le nom initial de Daphnusa porphyria.
+La localité type est Darjeeling.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Craspedortha_porphyria</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Craspedortha_porphyria</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Daphnusa porphyria Butler, 1876 (protonyme)
 Craspedortha inapicalis Mell, 1922
-Parum porphyria basale Dupont, 1937
-Taxonomie
-Liste des sous-espèces
+Parum porphyria basale Dupont, 1937</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Craspedortha_porphyria</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Craspedortha_porphyria</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces
 Craspedortha porphyrie porphyrie (Népal, au nord-est de l'Inde, Birmanie, sud de la Chine, au sud du Vietnam et en Thaïlande)
 Craspedortha porphyrie basale (Dupont, 1937) (Java)</t>
         </is>
